--- a/results/AS results/gamm_AS_model_selection.xlsx
+++ b/results/AS results/gamm_AS_model_selection.xlsx
@@ -50,22 +50,22 @@
     <t xml:space="preserve">m20</t>
   </si>
   <si>
+    <t xml:space="preserve">aerobic_scope ~ s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
     <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
   </si>
   <si>
     <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m21</t>
   </si>
   <si>
     <t xml:space="preserve">aerobic_scope ~ s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4))</t>
@@ -512,28 +512,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>77.137203835238</v>
+        <v>75.3940389498535</v>
       </c>
       <c r="D2" t="n">
-        <v>-66992.1351366059</v>
+        <v>-66613.2146299122</v>
       </c>
       <c r="E2" t="n">
-        <v>134142.197058439</v>
+        <v>133381.131621427</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999999772843637</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>134751.498648707</v>
+        <v>133977.992975931</v>
       </c>
       <c r="I2" t="n">
-        <v>395.965513102236</v>
+        <v>401.054344111106</v>
       </c>
       <c r="J2" t="n">
-        <v>16507.8627961648</v>
+        <v>16509.6059610501</v>
       </c>
     </row>
     <row r="3">
@@ -544,28 +544,28 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>77.4466570389077</v>
+        <v>62.7084781667592</v>
       </c>
       <c r="D3" t="n">
-        <v>-67007.1455135324</v>
+        <v>-66762.0660903263</v>
       </c>
       <c r="E3" t="n">
-        <v>134172.792312448</v>
+        <v>133652.438076203</v>
       </c>
       <c r="F3" t="n">
-        <v>30.5952540096769</v>
+        <v>271.306454775709</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000000227156363184419</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000122053965217866</v>
       </c>
       <c r="H3" t="n">
-        <v>134784.310397268</v>
+        <v>134147.458512967</v>
       </c>
       <c r="I3" t="n">
-        <v>395.702420303694</v>
+        <v>408.780894170596</v>
       </c>
       <c r="J3" t="n">
-        <v>16507.5533429611</v>
+        <v>16522.2915218332</v>
       </c>
     </row>
     <row r="4">
@@ -576,28 +576,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>63.0075497832943</v>
+        <v>62.7241569845925</v>
       </c>
       <c r="D4" t="n">
-        <v>-67168.2896186385</v>
+        <v>-66762.1072299664</v>
       </c>
       <c r="E4" t="n">
-        <v>134465.294526559</v>
+        <v>133652.548544725</v>
       </c>
       <c r="F4" t="n">
-        <v>323.097468120046</v>
+        <v>271.416923298122</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000692271002723184</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000115495206111892</v>
       </c>
       <c r="H4" t="n">
-        <v>134961.894456321</v>
+        <v>134147.677739164</v>
       </c>
       <c r="I4" t="n">
-        <v>404.467418401191</v>
+        <v>408.78049079072</v>
       </c>
       <c r="J4" t="n">
-        <v>16521.9924502167</v>
+        <v>16522.2758430154</v>
       </c>
     </row>
     <row r="5">
@@ -608,28 +608,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>62.9927649547946</v>
+        <v>77.4466570389077</v>
       </c>
       <c r="D5" t="n">
-        <v>-67168.3236111186</v>
+        <v>-67007.1455135324</v>
       </c>
       <c r="E5" t="n">
-        <v>134465.336702528</v>
+        <v>134172.792312448</v>
       </c>
       <c r="F5" t="n">
-        <v>323.139644088835</v>
+        <v>791.660691021068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000677825253819906</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001238982507667</v>
       </c>
       <c r="H5" t="n">
-        <v>134961.837057923</v>
+        <v>134784.310397268</v>
       </c>
       <c r="I5" t="n">
-        <v>404.4670207527</v>
+        <v>395.702420303694</v>
       </c>
       <c r="J5" t="n">
-        <v>16522.0072350452</v>
+        <v>16507.5533429611</v>
       </c>
     </row>
     <row r="6">
@@ -649,10 +649,10 @@
         <v>134502.394285043</v>
       </c>
       <c r="F6" t="n">
-        <v>360.197226604621</v>
+        <v>1121.26266361601</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000608367416590225</v>
+        <v>3.31822792381082e-244</v>
       </c>
       <c r="H6" t="n">
         <v>134999.040295596</v>
@@ -681,10 +681,10 @@
         <v>134502.409673592</v>
       </c>
       <c r="F7" t="n">
-        <v>360.212615153345</v>
+        <v>1121.27805216474</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000060370443291687</v>
+        <v>3.29279453896598e-244</v>
       </c>
       <c r="H7" t="n">
         <v>134999.131566702</v>
@@ -713,7 +713,7 @@
         <v>135823.962373645</v>
       </c>
       <c r="F8" t="n">
-        <v>1681.76531520617</v>
+        <v>2442.83075221756</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -745,7 +745,7 @@
         <v>141953.545415288</v>
       </c>
       <c r="F9" t="n">
-        <v>7811.34835684969</v>
+        <v>8572.41379386108</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>141968.597180972</v>
       </c>
       <c r="F10" t="n">
-        <v>7826.40012253303</v>
+        <v>8587.46555954442</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>141968.992872762</v>
       </c>
       <c r="F11" t="n">
-        <v>7826.79581432327</v>
+        <v>8587.86125133466</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>142037.870884761</v>
       </c>
       <c r="F12" t="n">
-        <v>7895.67382632231</v>
+        <v>8656.7392633337</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>142121.030804876</v>
       </c>
       <c r="F13" t="n">
-        <v>7978.83374643771</v>
+        <v>8739.8991834491</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>142137.034205063</v>
       </c>
       <c r="F14" t="n">
-        <v>7994.83714662446</v>
+        <v>8755.90258363585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>142884.163945898</v>
       </c>
       <c r="F15" t="n">
-        <v>8741.96688745965</v>
+        <v>9503.03232447105</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>142884.163945898</v>
       </c>
       <c r="F16" t="n">
-        <v>8741.96688745965</v>
+        <v>9503.03232447105</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>153938.210179625</v>
       </c>
       <c r="F17" t="n">
-        <v>19796.013121186</v>
+        <v>20557.0785581974</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>157400.37203466</v>
       </c>
       <c r="F18" t="n">
-        <v>23258.1749762211</v>
+        <v>24019.2404132324</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>

--- a/results/AS results/gamm_AS_model_selection.xlsx
+++ b/results/AS results/gamm_AS_model_selection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">model</t>
   </si>
@@ -44,103 +44,46 @@
     <t xml:space="preserve">df.residual</t>
   </si>
   <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ACF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4)) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4))</t>
+    <t xml:space="preserve">aerobic_scope ~ s(doy, bs = "cc", k = 17) + s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4)) + ACF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerobic_scope ~ s(doy, bs = "cc", k = 17) + s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerobic_scope ~ s(doy, bs = "cc", k = 17) + s(floy_tag, bs = c("re"), k = c(20))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerobic_scope ~ s(doy, bs = "cc", k = 17) + s(year, bs = c("re"), k = c(4))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerobic_scope ~ s(floy_tag, bs = c("re"), k = c(20)) + s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m3</t>
   </si>
   <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, bs = "cc", k = 17) + s(floy_tag, year, bs = c("re", "re"), k = c(20, 4))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(doy, by = fish_basin, bs = "cc", k = 17) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(doy, bs = "cc", k = 17) + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + ti(doy, fish_basin, bs = c("cc", "fs"), k = c(20, 3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin + s(doy, by = fish_basin, bs = "cc", k = 17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(doy, by = fish_basin, bs = "cc", k = 17)</t>
+    <t xml:space="preserve">aerobic_scope ~ s(floy_tag, bs = c("re"), k = c(20))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aerobic_scope ~ s(year, bs = c("re"), k = c(4))</t>
   </si>
   <si>
     <t xml:space="preserve">m4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(doy, bs = "cc", k = 17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ s(floy_tag, year, by = fish_basin, bs = c("re", "re"), k = c(20, 4))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aerobic_scope ~ fish_basin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2</t>
   </si>
 </sst>
 </file>
@@ -512,13 +455,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>75.3940389498535</v>
+        <v>36.3467206910406</v>
       </c>
       <c r="D2" t="n">
-        <v>-66613.2146299122</v>
+        <v>-67406.071794</v>
       </c>
       <c r="E2" t="n">
-        <v>133381.131621427</v>
+        <v>134887.457406412</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -527,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>133977.992975931</v>
+        <v>135178.027680872</v>
       </c>
       <c r="I2" t="n">
-        <v>401.054344111106</v>
+        <v>438.949273606013</v>
       </c>
       <c r="J2" t="n">
-        <v>16509.6059610501</v>
+        <v>16548.653279309</v>
       </c>
     </row>
     <row r="3">
@@ -544,28 +487,28 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>62.7084781667592</v>
+        <v>36.622989688426</v>
       </c>
       <c r="D3" t="n">
-        <v>-66762.0660903263</v>
+        <v>-67844.7483543212</v>
       </c>
       <c r="E3" t="n">
-        <v>133652.438076203</v>
+        <v>135765.114919251</v>
       </c>
       <c r="F3" t="n">
-        <v>271.306454775709</v>
+        <v>877.657512838108</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000122053965217866</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000262477805714131</v>
       </c>
       <c r="H3" t="n">
-        <v>134147.458512967</v>
+        <v>136056.859577451</v>
       </c>
       <c r="I3" t="n">
-        <v>408.780894170596</v>
+        <v>437.808183404579</v>
       </c>
       <c r="J3" t="n">
-        <v>16522.2915218332</v>
+        <v>16548.3770103116</v>
       </c>
     </row>
     <row r="4">
@@ -576,28 +519,28 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>62.7241569845925</v>
+        <v>33.836713893816</v>
       </c>
       <c r="D4" t="n">
-        <v>-66762.1072299664</v>
+        <v>-67877.0138775819</v>
       </c>
       <c r="E4" t="n">
-        <v>133652.548544725</v>
+        <v>135823.776598116</v>
       </c>
       <c r="F4" t="n">
-        <v>271.416923298122</v>
+        <v>936.319191703427</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000115495206111892</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000479590831049945</v>
       </c>
       <c r="H4" t="n">
-        <v>134147.677739164</v>
+        <v>136092.876490633</v>
       </c>
       <c r="I4" t="n">
-        <v>408.78049079072</v>
+        <v>439.526869305313</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.2758430154</v>
+        <v>16551.1632861062</v>
       </c>
     </row>
     <row r="5">
@@ -608,28 +551,28 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>77.4466570389077</v>
+        <v>18.8023289880501</v>
       </c>
       <c r="D5" t="n">
-        <v>-67007.1455135324</v>
+        <v>-71399.5382653826</v>
       </c>
       <c r="E5" t="n">
-        <v>134172.792312448</v>
+        <v>142839.036922694</v>
       </c>
       <c r="F5" t="n">
-        <v>791.660691021068</v>
+        <v>7951.57951628111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000001238982507667</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>134784.310397268</v>
+        <v>142993.209188752</v>
       </c>
       <c r="I5" t="n">
-        <v>395.702420303694</v>
+        <v>672.210580902034</v>
       </c>
       <c r="J5" t="n">
-        <v>16507.5533429611</v>
+        <v>16566.1976710119</v>
       </c>
     </row>
     <row r="6">
@@ -640,28 +583,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>63.0220678454301</v>
+        <v>21.6606353301684</v>
       </c>
       <c r="D6" t="n">
-        <v>-67186.8335259686</v>
+        <v>-76921.3136657066</v>
       </c>
       <c r="E6" t="n">
-        <v>134502.394285043</v>
+        <v>153888.291922251</v>
       </c>
       <c r="F6" t="n">
-        <v>1121.26266361601</v>
+        <v>19000.8345158389</v>
       </c>
       <c r="G6" t="n">
-        <v>3.31822792381082e-244</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>134999.040295596</v>
+        <v>154064.471711998</v>
       </c>
       <c r="I6" t="n">
-        <v>404.312219805612</v>
+        <v>1289.37511420541</v>
       </c>
       <c r="J6" t="n">
-        <v>16521.9779321546</v>
+        <v>16563.3393646698</v>
       </c>
     </row>
     <row r="7">
@@ -672,28 +615,28 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>63.0338338838959</v>
+        <v>18.7967644068226</v>
       </c>
       <c r="D7" t="n">
-        <v>-67186.8313861242</v>
+        <v>-76949.3686933496</v>
       </c>
       <c r="E7" t="n">
-        <v>134502.409673592</v>
+        <v>153938.361763918</v>
       </c>
       <c r="F7" t="n">
-        <v>1121.27805216474</v>
+        <v>19050.9043575056</v>
       </c>
       <c r="G7" t="n">
-        <v>3.29279453896598e-244</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>134999.131566702</v>
+        <v>154091.237642561</v>
       </c>
       <c r="I7" t="n">
-        <v>404.311400008793</v>
+        <v>1293.89866340427</v>
       </c>
       <c r="J7" t="n">
-        <v>16521.9661661161</v>
+        <v>16566.2032355932</v>
       </c>
     </row>
     <row r="8">
@@ -704,348 +647,28 @@
         <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>33.8529973195702</v>
+        <v>3.82810987105112</v>
       </c>
       <c r="D8" t="n">
-        <v>-67877.0919684766</v>
+        <v>-78673.1239320305</v>
       </c>
       <c r="E8" t="n">
-        <v>135823.962373645</v>
+        <v>157356.220359058</v>
       </c>
       <c r="F8" t="n">
-        <v>2442.83075221756</v>
+        <v>22468.7629526457</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>136093.176442566</v>
+        <v>157394.695511022</v>
       </c>
       <c r="I8" t="n">
-        <v>439.531508199897</v>
+        <v>1581.68416530881</v>
       </c>
       <c r="J8" t="n">
-        <v>16551.1470026804</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>59.234806663926</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-70915.4991070392</v>
-      </c>
-      <c r="E9" t="n">
-        <v>141953.545415288</v>
-      </c>
-      <c r="F9" t="n">
-        <v>8572.41379386108</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>142426.348078072</v>
-      </c>
-      <c r="I9" t="n">
-        <v>634.196905263519</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16525.7651933361</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>57.2198579966493</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-70925.0522957597</v>
-      </c>
-      <c r="E10" t="n">
-        <v>141968.597180972</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8587.46555954442</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>142425.756636757</v>
-      </c>
-      <c r="I10" t="n">
-        <v>635.007030217924</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16527.7801420034</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55.1704350949098</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-70927.7592838679</v>
-      </c>
-      <c r="E11" t="n">
-        <v>141968.992872762</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8587.86125133466</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>142406.791150032</v>
-      </c>
-      <c r="I11" t="n">
-        <v>635.247615140091</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16529.8295649051</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
-        <v>55.3781047591038</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-70962.4409621086</v>
-      </c>
-      <c r="E12" t="n">
-        <v>142037.870884761</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8656.7392633337</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>142473.79664139</v>
-      </c>
-      <c r="I12" t="n">
-        <v>637.766394091172</v>
-      </c>
-      <c r="J12" t="n">
-        <v>16529.6218952409</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>46.82440859502</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-71012.265947364</v>
-      </c>
-      <c r="E13" t="n">
-        <v>142121.030804876</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8739.8991834491</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>142493.335853245</v>
-      </c>
-      <c r="I13" t="n">
-        <v>641.591295841652</v>
-      </c>
-      <c r="J13" t="n">
-        <v>16538.175591405</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="n">
-        <v>44.8195748553424</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-71022.2734642924</v>
-      </c>
-      <c r="E14" t="n">
-        <v>142137.034205063</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8755.90258363585</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>142493.861861353</v>
-      </c>
-      <c r="I14" t="n">
-        <v>642.444639740487</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16540.1804251447</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.8996071373914</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-71425.1417646413</v>
-      </c>
-      <c r="E15" t="n">
-        <v>142884.163945898</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9503.03232447105</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>143014.878895192</v>
-      </c>
-      <c r="I15" t="n">
-        <v>674.285209954894</v>
-      </c>
-      <c r="J15" t="n">
-        <v>16569.1003928626</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.8996071373914</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-71425.1417646413</v>
-      </c>
-      <c r="E16" t="n">
-        <v>142884.163945898</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9503.03232447105</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>143014.878895192</v>
-      </c>
-      <c r="I16" t="n">
-        <v>674.285209954894</v>
-      </c>
-      <c r="J16" t="n">
-        <v>16569.1003928626</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="n">
-        <v>18.7976431743427</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-76949.2606208185</v>
-      </c>
-      <c r="E17" t="n">
-        <v>153938.210179625</v>
-      </c>
-      <c r="F17" t="n">
-        <v>20557.0785581974</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>154091.335141912</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1293.88699423187</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16566.2023568257</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-78696.1860173299</v>
-      </c>
-      <c r="E18" t="n">
-        <v>157400.37203466</v>
-      </c>
-      <c r="F18" t="n">
-        <v>24019.2404132324</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>157431.237050465</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1586.1345531402</v>
-      </c>
-      <c r="J18" t="n">
-        <v>16582</v>
+        <v>16581.1718901289</v>
       </c>
     </row>
   </sheetData>
